--- a/IELTS/Writing/Task 1/Letter.xlsx
+++ b/IELTS/Writing/Task 1/Letter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>S.No</t>
   </si>
@@ -36,37 +36,118 @@
     <t>Apology</t>
   </si>
   <si>
+    <t>I am sorry but</t>
+  </si>
+  <si>
+    <t>I am terribly sorry but</t>
+  </si>
+  <si>
+    <t>I must apologize about, Please accept my sincere apologies</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
     <t>Seeking Help</t>
   </si>
   <si>
+    <t>I was wondering of you could help me</t>
+  </si>
+  <si>
+    <t>I would appreciate it if you could</t>
+  </si>
+  <si>
+    <t>I would be grateful if you could</t>
+  </si>
+  <si>
     <t>Complaint</t>
   </si>
   <si>
+    <t>I'm writing to register a complaint about</t>
+  </si>
+  <si>
+    <t>I'm writing to express my dissatisfaction with</t>
+  </si>
+  <si>
+    <t>I'm writing to express my annoyance with</t>
+  </si>
+  <si>
     <t>Satisfaction</t>
   </si>
   <si>
+    <t>I was glad to hear that</t>
+  </si>
+  <si>
+    <t>I was thrilled to find out that</t>
+  </si>
+  <si>
+    <t>I was delighted to hear that</t>
+  </si>
+  <si>
     <t>Suggestion</t>
   </si>
   <si>
     <t>Asking for Information</t>
   </si>
   <si>
-    <t>Providing Information</t>
+    <t>What I am looking for is</t>
+  </si>
+  <si>
+    <t>I would like to know about/if</t>
+  </si>
+  <si>
+    <t>I am writing to enquire about</t>
+  </si>
+  <si>
+    <t>Providing Information / Reasons</t>
+  </si>
+  <si>
+    <t>This is because of</t>
+  </si>
+  <si>
+    <t>This is due to, This is as a result of.</t>
   </si>
   <si>
     <t>Giving good news</t>
   </si>
   <si>
+    <t>I am delighted to tell you that</t>
+  </si>
+  <si>
+    <t>I am pleased to inform you that</t>
+  </si>
+  <si>
+    <t>I am happy to advise you that.</t>
+  </si>
+  <si>
     <t>Giving bad news</t>
   </si>
   <si>
+    <t>I am sorry to tell you that.</t>
+  </si>
+  <si>
+    <t>I regret to inform you that</t>
+  </si>
+  <si>
+    <t>I am afraid I have some bad news</t>
+  </si>
+  <si>
     <t>Conveying regards</t>
   </si>
   <si>
+    <t>Please pass on my best wishes to your wife and children</t>
+  </si>
+  <si>
+    <t>Please give my best regards to your family</t>
+  </si>
+  <si>
     <t>Concern/sympathy</t>
+  </si>
+  <si>
+    <t>I was sorry to hear about</t>
+  </si>
+  <si>
+    <t>I am writing to express my concern about</t>
   </si>
 </sst>
 </file>
@@ -74,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,29 +170,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,14 +205,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -141,23 +250,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +274,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -178,14 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -201,38 +312,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,187 +322,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,30 +519,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,16 +541,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +576,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -521,170 +619,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1008,15 +1107,15 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="24.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="26.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="24.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="26.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="44.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="39.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="46.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1026,22 +1125,31 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="30" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1049,31 +1157,58 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" ht="30" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1081,55 +1216,109 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" ht="30" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" ht="30" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
